--- a/nodes-from-map-basic.xlsx
+++ b/nodes-from-map-basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\cmsc204-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B58FB0-2899-4AA9-8C68-42AE9BF7F76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A9ED8-BC37-46A2-80D5-1740260D5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t>x</t>
   </si>
@@ -952,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,18 +994,36 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1034,7 +1052,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1063,9 +1081,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
@@ -1092,10 +1113,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -1124,7 +1142,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1153,7 +1174,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1185,10 +1206,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1206,18 +1224,12 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1240,7 +1252,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -1286,7 +1298,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1301,29 +1313,6 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
         <v>0</v>
       </c>
     </row>

--- a/nodes-from-map-basic.xlsx
+++ b/nodes-from-map-basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\school\cmsc204-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A9ED8-BC37-46A2-80D5-1740260D5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E131E-C94F-41ED-BB7C-49FE20D93C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,7 +955,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
